--- a/unidad de victimas/mysite/src/python_hol/static/recursos/documentos/INVENTARIO DOCUMENTAL - FORMATO.xlsx
+++ b/unidad de victimas/mysite/src/python_hol/static/recursos/documentos/INVENTARIO DOCUMENTAL - FORMATO.xlsx
@@ -5,9 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andres\git\web\mysite\src\python_hol\static\recursos\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andres\git\unidad de victimas\mysite\src\python_hol\static\recursos\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rBQ2VZ0MrNynUyZuNOTDMILNOSJEPuVHZURALm6YnFlcUD8591j7YZyvvk53/fxem8pC68BALZ5dTKMWuR83nw==" workbookSaltValue="kHQOTFb7IiBEUkk3fPd34Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="8085" tabRatio="271"/>
   </bookViews>
@@ -616,29 +617,32 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="12" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="24" borderId="13" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="11" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="10" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="12" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="24" borderId="13" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -987,14 +991,15 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.125" style="2" bestFit="1" customWidth="1"/>
@@ -1004,56 +1009,57 @@
     <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="6"/>
+    <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
